--- a/com.orangehrm_hybridframework/TestData/DataSheet.xlsx
+++ b/com.orangehrm_hybridframework/TestData/DataSheet.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14190" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14190" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Regis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -29,6 +28,18 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emial </t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -362,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -403,12 +414,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>